--- a/epsych_citations.xlsx
+++ b/epsych_citations.xlsx
@@ -2,20 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\epsych2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3834753-93A8-4203-A26C-57B7C52A965E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF75E2E-1911-4B80-87CB-B21037223883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3619C68B-4F70-4E62-9338-8DF6F3E279C8}"/>
+    <workbookView xWindow="-195" yWindow="-195" windowWidth="38790" windowHeight="21270" xr2:uid="{3619C68B-4F70-4E62-9338-8DF6F3E279C8}"/>
   </bookViews>
   <sheets>
     <sheet name="EPsych Citations" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EPsych Citations'!$A$1:$F$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="32" r:id="rId2"/>
+    <pivotCache cacheId="36" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t>Author(s)</t>
   </si>
@@ -351,7 +358,52 @@
     <t>Sun</t>
   </si>
   <si>
-    <t>SUn</t>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Lab</t>
+  </si>
+  <si>
+    <t>Anbuhl et al.</t>
+  </si>
+  <si>
+    <t>Count of Year</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.2412453122</t>
+  </si>
+  <si>
+    <t>The cingulate cortex facilitates auditory perception under challenging listening conditions</t>
+  </si>
+  <si>
+    <t>Social learning exploits the available auditory or visual cues</t>
+  </si>
+  <si>
+    <t>Paraouty et al</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-020-71005-x</t>
+  </si>
+  <si>
+    <t>Sensory cortex plasticity supports auditory social learning</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-023-41641-8</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-021-92524-1</t>
+  </si>
+  <si>
+    <t>Dopaminergic signaling supports auditory social learning</t>
+  </si>
+  <si>
+    <t>Sci Rep</t>
   </si>
 </sst>
 </file>
@@ -412,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -428,6 +480,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,6 +501,570 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Daniel Jason Stolzberg" refreshedDate="45923.368929050928" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="23" xr:uid="{57B97812-16BE-4D13-8740-5AAF2E05CAC7}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E1000" sheet="EPsych Citations"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Author(s)" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Lab" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="Sun"/>
+        <s v="Allman"/>
+        <s v="Sanes"/>
+        <s v="Caras"/>
+        <s v="Salvi"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2025"/>
+    </cacheField>
+    <cacheField name="Title" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Journal" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Daniel Jason Stolzberg" refreshedDate="45923.368975231482" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="23" xr:uid="{8817498E-B552-41B5-83C7-0482A6687F10}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E200" sheet="EPsych Citations"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Author(s)" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Lab" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2025" count="12">
+        <n v="2017"/>
+        <n v="2023"/>
+        <n v="2022"/>
+        <n v="2025"/>
+        <n v="2024"/>
+        <n v="2019"/>
+        <n v="2018"/>
+        <n v="2013"/>
+        <n v="2021"/>
+        <n v="2020"/>
+        <n v="2014"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Title" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Journal" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="23">
+  <r>
+    <s v="Alkharabsheh et al"/>
+    <x v="0"/>
+    <n v="2017"/>
+    <s v="Early age noise exposure increases loudness perception - A novel animal model of hyperacusis"/>
+    <s v="Hear Res"/>
+  </r>
+  <r>
+    <s v="Al-youzbaki, Schormans et al."/>
+    <x v="1"/>
+    <n v="2023"/>
+    <s v="Past and present experience shifts audiovisual temporal perception in rats"/>
+    <s v="Front Behav Neurosci"/>
+  </r>
+  <r>
+    <s v="Anbuhl et al."/>
+    <x v="2"/>
+    <n v="2022"/>
+    <s v="Auditory processing remains sensitive to environmental experience during adolescence"/>
+    <s v="Nat Commun"/>
+  </r>
+  <r>
+    <s v="Anbuhl et al."/>
+    <x v="2"/>
+    <n v="2025"/>
+    <s v="The cingulate cortex facilitates auditory perception under challenging listening conditions"/>
+    <s v="PNAS"/>
+  </r>
+  <r>
+    <s v="Hayes et al."/>
+    <x v="1"/>
+    <n v="2023"/>
+    <s v="Using an appetitive operant conditioning paradigm to screen rats for tinnitus"/>
+    <s v="Front Neurosci"/>
+  </r>
+  <r>
+    <s v="Macedo-Lima et al."/>
+    <x v="3"/>
+    <n v="2024"/>
+    <s v="Orbitofrontal cortex modulates auditory cortical sensitivity and sound perception"/>
+    <s v="Curr Biol"/>
+  </r>
+  <r>
+    <s v="Mowery et al."/>
+    <x v="2"/>
+    <n v="2019"/>
+    <s v="Preserving Inhibition during Developmental Hearing Loss"/>
+    <s v="J Neurosci"/>
+  </r>
+  <r>
+    <s v="Penikis &amp; Sanes"/>
+    <x v="2"/>
+    <n v="2023"/>
+    <s v="A Redundant Cortical Code for Speech Envelope"/>
+    <s v="J Neurosci"/>
+  </r>
+  <r>
+    <s v="Schormans &amp; Allman"/>
+    <x v="1"/>
+    <n v="2018"/>
+    <s v="Behavioral Plasticity of Audiovisual Perception"/>
+    <s v="Front Behav Neurosci"/>
+  </r>
+  <r>
+    <s v="Schormans &amp; Allman"/>
+    <x v="1"/>
+    <n v="2019"/>
+    <s v="Compensatory Plasticity in the Lateral Extrastriate Visual Cortex"/>
+    <s v="Neural Plasticity"/>
+  </r>
+  <r>
+    <s v="Schormans et al."/>
+    <x v="1"/>
+    <n v="2017"/>
+    <s v="Audiovisual Temporal Processing and Synchrony Perception in the Rat"/>
+    <s v="Front Behav Neurosci"/>
+  </r>
+  <r>
+    <s v="Stolzberg et al."/>
+    <x v="4"/>
+    <n v="2013"/>
+    <s v="A novel behavioral assay for the assessment of acute tinnitus in rats optimized for simultaneous recording of oscillatory neural activity"/>
+    <s v="J Neurosci Methods"/>
+  </r>
+  <r>
+    <s v="Sun et al"/>
+    <x v="0"/>
+    <n v="2013"/>
+    <s v="Loudness perception affected by early age hearing loss"/>
+    <s v="Hear Res"/>
+  </r>
+  <r>
+    <s v="Yao &amp; Sanes"/>
+    <x v="2"/>
+    <n v="2018"/>
+    <s v="Developmental deprivation-induced perceptual and cortical processing deficits"/>
+    <s v="eLife"/>
+  </r>
+  <r>
+    <s v="Yao &amp; Sanes"/>
+    <x v="2"/>
+    <n v="2021"/>
+    <s v="Temporal Encoding is Required for Categorization, But Not Discrimination"/>
+    <s v="Cereb Cortex"/>
+  </r>
+  <r>
+    <s v="Yao et al."/>
+    <x v="2"/>
+    <n v="2020"/>
+    <s v="Parietal Cortex Is Required for the Integration of Acoustic Evidence"/>
+    <s v="Curr Biol"/>
+  </r>
+  <r>
+    <s v="Yao et al."/>
+    <x v="2"/>
+    <n v="2023"/>
+    <s v="Transformation of acoustic information to sensory decision variables"/>
+    <s v="PNAS"/>
+  </r>
+  <r>
+    <s v="Ying, Stolzberg &amp; Caras"/>
+    <x v="3"/>
+    <n v="2025"/>
+    <s v="Neural Correlates of Perceptual Plasticity in the Auditory Midbrain and Thalamus"/>
+    <s v="J Neurosci"/>
+  </r>
+  <r>
+    <s v="Zhang et al"/>
+    <x v="0"/>
+    <n v="2014"/>
+    <s v="Loudness perception affected by high doses of salicylate—A behavioral model of hyperacusis"/>
+    <s v="Behav Brain Res"/>
+  </r>
+  <r>
+    <s v="Paraouty et al"/>
+    <x v="2"/>
+    <n v="2020"/>
+    <s v="Social learning exploits the available auditory or visual cues"/>
+    <s v="Scientific Reports"/>
+  </r>
+  <r>
+    <s v="Paraouty et al"/>
+    <x v="2"/>
+    <n v="2023"/>
+    <s v="Sensory cortex plasticity supports auditory social learning"/>
+    <s v="Nat Commun"/>
+  </r>
+  <r>
+    <s v="Paraouty et al"/>
+    <x v="2"/>
+    <n v="2021"/>
+    <s v="Dopaminergic signaling supports auditory social learning"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="23">
+  <r>
+    <s v="Alkharabsheh et al"/>
+    <s v="Sun"/>
+    <x v="0"/>
+    <s v="Early age noise exposure increases loudness perception - A novel animal model of hyperacusis"/>
+    <s v="Hear Res"/>
+  </r>
+  <r>
+    <s v="Al-youzbaki, Schormans et al."/>
+    <s v="Allman"/>
+    <x v="1"/>
+    <s v="Past and present experience shifts audiovisual temporal perception in rats"/>
+    <s v="Front Behav Neurosci"/>
+  </r>
+  <r>
+    <s v="Anbuhl et al."/>
+    <s v="Sanes"/>
+    <x v="2"/>
+    <s v="Auditory processing remains sensitive to environmental experience during adolescence"/>
+    <s v="Nat Commun"/>
+  </r>
+  <r>
+    <s v="Anbuhl et al."/>
+    <s v="Sanes"/>
+    <x v="3"/>
+    <s v="The cingulate cortex facilitates auditory perception under challenging listening conditions"/>
+    <s v="PNAS"/>
+  </r>
+  <r>
+    <s v="Hayes et al."/>
+    <s v="Allman"/>
+    <x v="1"/>
+    <s v="Using an appetitive operant conditioning paradigm to screen rats for tinnitus"/>
+    <s v="Front Neurosci"/>
+  </r>
+  <r>
+    <s v="Macedo-Lima et al."/>
+    <s v="Caras"/>
+    <x v="4"/>
+    <s v="Orbitofrontal cortex modulates auditory cortical sensitivity and sound perception"/>
+    <s v="Curr Biol"/>
+  </r>
+  <r>
+    <s v="Mowery et al."/>
+    <s v="Sanes"/>
+    <x v="5"/>
+    <s v="Preserving Inhibition during Developmental Hearing Loss"/>
+    <s v="J Neurosci"/>
+  </r>
+  <r>
+    <s v="Penikis &amp; Sanes"/>
+    <s v="Sanes"/>
+    <x v="1"/>
+    <s v="A Redundant Cortical Code for Speech Envelope"/>
+    <s v="J Neurosci"/>
+  </r>
+  <r>
+    <s v="Schormans &amp; Allman"/>
+    <s v="Allman"/>
+    <x v="6"/>
+    <s v="Behavioral Plasticity of Audiovisual Perception"/>
+    <s v="Front Behav Neurosci"/>
+  </r>
+  <r>
+    <s v="Schormans &amp; Allman"/>
+    <s v="Allman"/>
+    <x v="5"/>
+    <s v="Compensatory Plasticity in the Lateral Extrastriate Visual Cortex"/>
+    <s v="Neural Plasticity"/>
+  </r>
+  <r>
+    <s v="Schormans et al."/>
+    <s v="Allman"/>
+    <x v="0"/>
+    <s v="Audiovisual Temporal Processing and Synchrony Perception in the Rat"/>
+    <s v="Front Behav Neurosci"/>
+  </r>
+  <r>
+    <s v="Stolzberg et al."/>
+    <s v="Salvi"/>
+    <x v="7"/>
+    <s v="A novel behavioral assay for the assessment of acute tinnitus in rats optimized for simultaneous recording of oscillatory neural activity"/>
+    <s v="J Neurosci Methods"/>
+  </r>
+  <r>
+    <s v="Sun et al"/>
+    <s v="Sun"/>
+    <x v="7"/>
+    <s v="Loudness perception affected by early age hearing loss"/>
+    <s v="Hear Res"/>
+  </r>
+  <r>
+    <s v="Yao &amp; Sanes"/>
+    <s v="Sanes"/>
+    <x v="6"/>
+    <s v="Developmental deprivation-induced perceptual and cortical processing deficits"/>
+    <s v="eLife"/>
+  </r>
+  <r>
+    <s v="Yao &amp; Sanes"/>
+    <s v="Sanes"/>
+    <x v="8"/>
+    <s v="Temporal Encoding is Required for Categorization, But Not Discrimination"/>
+    <s v="Cereb Cortex"/>
+  </r>
+  <r>
+    <s v="Yao et al."/>
+    <s v="Sanes"/>
+    <x v="9"/>
+    <s v="Parietal Cortex Is Required for the Integration of Acoustic Evidence"/>
+    <s v="Curr Biol"/>
+  </r>
+  <r>
+    <s v="Yao et al."/>
+    <s v="Sanes"/>
+    <x v="1"/>
+    <s v="Transformation of acoustic information to sensory decision variables"/>
+    <s v="PNAS"/>
+  </r>
+  <r>
+    <s v="Ying, Stolzberg &amp; Caras"/>
+    <s v="Caras"/>
+    <x v="3"/>
+    <s v="Neural Correlates of Perceptual Plasticity in the Auditory Midbrain and Thalamus"/>
+    <s v="J Neurosci"/>
+  </r>
+  <r>
+    <s v="Zhang et al"/>
+    <s v="Sun"/>
+    <x v="10"/>
+    <s v="Loudness perception affected by high doses of salicylate—A behavioral model of hyperacusis"/>
+    <s v="Behav Brain Res"/>
+  </r>
+  <r>
+    <s v="Paraouty et al"/>
+    <s v="Sanes"/>
+    <x v="9"/>
+    <s v="Social learning exploits the available auditory or visual cues"/>
+    <s v="Scientific Reports"/>
+  </r>
+  <r>
+    <s v="Paraouty et al"/>
+    <s v="Sanes"/>
+    <x v="1"/>
+    <s v="Sensory cortex plasticity supports auditory social learning"/>
+    <s v="Nat Commun"/>
+  </r>
+  <r>
+    <s v="Paraouty et al"/>
+    <s v="Sanes"/>
+    <x v="8"/>
+    <s v="Dopaminergic signaling supports auditory social learning"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="11"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D4CB18A4-0BF2-447E-A679-44D5F9F3BA40}" name="PivotTable8" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K2:L15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="13">
+        <item x="7"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Year" fld="2" subtotal="count" baseField="2" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48AAA1B8-39C4-4492-BE3B-CC81501EEA92}" name="PivotTable7" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H2:I9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Lab" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -763,22 +1384,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550B9A31-9931-4BD1-92E5-1D6CDA436134}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="79.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,127 +1424,199 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2">
+        <v>2013</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="9">
+        <v>3</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2013</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="9">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="K4" s="8">
+        <v>2014</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>2017</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C6" s="2">
         <v>2017</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="H6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2018</v>
+      </c>
+      <c r="L6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C7" s="2">
         <v>2018</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="H7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="I7" s="9">
+        <v>11</v>
+      </c>
+      <c r="K7" s="8">
         <v>2019</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -926,59 +1624,87 @@
         <v>70</v>
       </c>
       <c r="C8" s="2">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="K8" s="8">
+        <v>2020</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="9">
+        <v>22</v>
+      </c>
+      <c r="K9" s="8">
+        <v>2021</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="8">
         <v>2022</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -986,200 +1712,321 @@
         <v>70</v>
       </c>
       <c r="C11" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="8">
         <v>2023</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="L11" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2024</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="8">
+        <v>2025</v>
+      </c>
+      <c r="L13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17">
+        <f>GETPIVOTDATA("Year",$K$2)/COUNT(_xlfn.UNIQUE(C2:C200))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="2">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="2">
         <v>2023</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C21" s="2">
         <v>2024</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C23" s="2">
         <v>2025</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16">
-        <v>2013</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2017</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2014</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:F19" xr:uid="{550B9A31-9931-4BD1-92E5-1D6CDA436134}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F23">
+      <sortCondition ref="C1:C19"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://doi.org/10.3389/fnbeh.2016.00246" xr:uid="{911BA56D-F564-4233-9066-041C6C71FC33}"/>
-    <hyperlink ref="F3" r:id="rId2" display="https://doi.org/10.3389/fnbeh.2018.00256" xr:uid="{6F567AF7-15AB-45EB-8D6E-62C50C7F7189}"/>
-    <hyperlink ref="F4" r:id="rId3" display="https://doi.org/10.7554/eLife.33891" xr:uid="{87A2D835-B686-4BF7-94F6-F2889A3D7C46}"/>
-    <hyperlink ref="F5" r:id="rId4" display="https://doi.org/10.1155/2019/7946987" xr:uid="{2B5DBF79-B112-49D9-97E8-D2D61B3B1139}"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://doi.org/10.1523/JNEUROSCI.0749-19.2019" xr:uid="{E96B9BC9-ACB8-4CB5-BB53-E5B40364272A}"/>
-    <hyperlink ref="F7" r:id="rId6" display="https://doi.org/10.1016/j.cub.2020.06.017" xr:uid="{5516D351-8289-4F6B-803D-05ED4EA28469}"/>
-    <hyperlink ref="F8" r:id="rId7" display="https://doi.org/10.1093/cercor/bhaa396" xr:uid="{8D7681DB-5A1A-48FB-9524-F9B1A91D62D8}"/>
-    <hyperlink ref="F9" r:id="rId8" display="https://doi.org/10.1038/s41467-022-30455-9" xr:uid="{501EB03B-5F56-462F-9BD6-86E5AD055A50}"/>
-    <hyperlink ref="F10" r:id="rId9" display="https://doi.org/10.1523/JNEUROSCI.1616-21.2022" xr:uid="{8B0BA75D-BA6B-4834-90C8-4A93C08049D1}"/>
-    <hyperlink ref="F11" r:id="rId10" display="https://doi.org/10.1073/pnas.2212120120" xr:uid="{17104C07-1B62-4DB7-BFB9-8EB739AC0EB2}"/>
-    <hyperlink ref="F12" r:id="rId11" display="https://doi.org/10.3389/fnbeh.2023.1287587" xr:uid="{74D8FE5A-3D9C-4C96-B6FF-C68F91FF1AA5}"/>
-    <hyperlink ref="F13" r:id="rId12" display="https://doi.org/10.3389/fnins.2023.1001619" xr:uid="{74E8E6A8-5D6F-40FD-B218-572DEBAABCCF}"/>
-    <hyperlink ref="F14" r:id="rId13" display="https://doi.org/10.1016/j.cub.2024.06.036" xr:uid="{EE0B2DDA-8FEA-4C28-AE63-3EDC05654868}"/>
-    <hyperlink ref="F15" r:id="rId14" display="https://doi.org/10.1523/JNEUROSCI.0691-24.2024" xr:uid="{8FD9B8FB-8675-419C-A307-3DEFBC253E99}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{59D7F300-BF87-40A1-828A-24F2343F369A}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{746722C6-2E83-408B-AF0B-9F638D8CD2C3}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{C2CCDA70-3408-4DC1-AB76-E4D99DF72638}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{99E7F62E-98D6-4A34-B728-3E9907881A13}"/>
+    <hyperlink ref="F6" r:id="rId3" display="https://doi.org/10.3389/fnbeh.2016.00246" xr:uid="{911BA56D-F564-4233-9066-041C6C71FC33}"/>
+    <hyperlink ref="F7" r:id="rId4" display="https://doi.org/10.3389/fnbeh.2018.00256" xr:uid="{6F567AF7-15AB-45EB-8D6E-62C50C7F7189}"/>
+    <hyperlink ref="F8" r:id="rId5" display="https://doi.org/10.7554/eLife.33891" xr:uid="{87A2D835-B686-4BF7-94F6-F2889A3D7C46}"/>
+    <hyperlink ref="F10" r:id="rId6" display="https://doi.org/10.1155/2019/7946987" xr:uid="{2B5DBF79-B112-49D9-97E8-D2D61B3B1139}"/>
+    <hyperlink ref="F9" r:id="rId7" display="https://doi.org/10.1523/JNEUROSCI.0749-19.2019" xr:uid="{E96B9BC9-ACB8-4CB5-BB53-E5B40364272A}"/>
+    <hyperlink ref="F11" r:id="rId8" display="https://doi.org/10.1016/j.cub.2020.06.017" xr:uid="{5516D351-8289-4F6B-803D-05ED4EA28469}"/>
+    <hyperlink ref="F13" r:id="rId9" display="https://doi.org/10.1093/cercor/bhaa396" xr:uid="{8D7681DB-5A1A-48FB-9524-F9B1A91D62D8}"/>
+    <hyperlink ref="F15" r:id="rId10" display="https://doi.org/10.1038/s41467-022-30455-9" xr:uid="{501EB03B-5F56-462F-9BD6-86E5AD055A50}"/>
+    <hyperlink ref="F18" r:id="rId11" display="https://doi.org/10.1523/JNEUROSCI.1616-21.2022" xr:uid="{8B0BA75D-BA6B-4834-90C8-4A93C08049D1}"/>
+    <hyperlink ref="F19" r:id="rId12" display="https://doi.org/10.1073/pnas.2212120120" xr:uid="{17104C07-1B62-4DB7-BFB9-8EB739AC0EB2}"/>
+    <hyperlink ref="F16" r:id="rId13" display="https://doi.org/10.3389/fnbeh.2023.1287587" xr:uid="{74D8FE5A-3D9C-4C96-B6FF-C68F91FF1AA5}"/>
+    <hyperlink ref="F17" r:id="rId14" display="https://doi.org/10.3389/fnins.2023.1001619" xr:uid="{74E8E6A8-5D6F-40FD-B218-572DEBAABCCF}"/>
+    <hyperlink ref="F21" r:id="rId15" display="https://doi.org/10.1016/j.cub.2024.06.036" xr:uid="{EE0B2DDA-8FEA-4C28-AE63-3EDC05654868}"/>
+    <hyperlink ref="F23" r:id="rId16" display="https://doi.org/10.1523/JNEUROSCI.0691-24.2024" xr:uid="{8FD9B8FB-8675-419C-A307-3DEFBC253E99}"/>
+    <hyperlink ref="F2" r:id="rId17" xr:uid="{59D7F300-BF87-40A1-828A-24F2343F369A}"/>
+    <hyperlink ref="F3" r:id="rId18" xr:uid="{746722C6-2E83-408B-AF0B-9F638D8CD2C3}"/>
+    <hyperlink ref="F5" r:id="rId19" xr:uid="{C2CCDA70-3408-4DC1-AB76-E4D99DF72638}"/>
+    <hyperlink ref="F4" r:id="rId20" xr:uid="{99E7F62E-98D6-4A34-B728-3E9907881A13}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{333C205B-C19D-4E7F-B6A4-2FD7995478C2}"/>
+    <hyperlink ref="F12" r:id="rId22" xr:uid="{0D1429D1-C888-4A4C-AEE8-790F232DC78E}"/>
+    <hyperlink ref="F20" r:id="rId23" xr:uid="{D3FB2C6D-5D50-4B05-AA8E-16657E28EF84}"/>
+    <hyperlink ref="F14" r:id="rId24" xr:uid="{AE5C0C12-C9CF-4467-BFDC-8B1CBFD8DDE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>